--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Description_Report.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Description_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\Data_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DDB02F-9B00-45C5-8CB4-1AB6AF3497DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEEAA0-6012-4329-9541-37E16E5D0896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6705" yWindow="1095" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3630" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Understanding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Data Description Report</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Train data</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>*all columns of the data type float</t>
+  </si>
+  <si>
+    <t>*the columns are all anonymized: Therefore no real Feature description possible</t>
+  </si>
+  <si>
+    <t>Test data</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -153,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -433,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -514,15 +533,80 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Description_Report.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Description_Report.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\Data_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEEAA0-6012-4329-9541-37E16E5D0896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFB570-5DF9-4E11-BD33-584B9510B82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3630" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Business_Understanding" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_Description_Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
